--- a/biology/Histoire de la zoologie et de la botanique/Joachim_François_Philibert_Feisthamel/Joachim_François_Philibert_Feisthamel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joachim_François_Philibert_Feisthamel/Joachim_François_Philibert_Feisthamel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joachim_Fran%C3%A7ois_Philibert_Feisthamel</t>
+          <t>Joachim_François_Philibert_Feisthamel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le baron Joachim-François-Philibert de Julien de Feisthamel (1791-1851) est un militaire et entomologiste français[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baron Joachim-François-Philibert de Julien de Feisthamel (1791-1851) est un militaire et entomologiste français.
 Le baron Joachim de Feisthamel est successivement soldat, major d'infanterie, colonel puis maréchal de camp. Il est membre de la Société Entomologique de France et commandeur de la Légion d'Honneur.
 Il est enterré au cimetière du Père-Lachaise (28e division).
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joachim_Fran%C3%A7ois_Philibert_Feisthamel</t>
+          <t>Joachim_François_Philibert_Feisthamel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi ses travaux, on peut noter :
 1835, Heliconia leprieuri Annales de la Société Entomologique de France 4:631-632, plaque de 18
